--- a/po_analysis_by_asin/B0D2V4VH2C_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2V4VH2C_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>60</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>80</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>80</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>120</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>40</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>40</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>240</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>60</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>120</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>300</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>200</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>400</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>220</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>300</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>780</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>20</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>80</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>160</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>300</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>420</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>940</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1320</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>

--- a/po_analysis_by_asin/B0D2V4VH2C_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2V4VH2C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-196.4145677260732</v>
+      </c>
+      <c r="D2" t="n">
+        <v>220.8566418841556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-163.9269254159585</v>
+      </c>
+      <c r="D3" t="n">
+        <v>241.9659040061348</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-150.2025348828862</v>
+      </c>
+      <c r="D4" t="n">
+        <v>253.2027074527664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>69</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-136.3968505570568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>275.7461264762698</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-112.9611350644414</v>
+      </c>
+      <c r="D6" t="n">
+        <v>279.8849654522818</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-109.1933111885373</v>
+      </c>
+      <c r="D7" t="n">
+        <v>290.215545696084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>99</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-101.9208660981232</v>
+      </c>
+      <c r="D8" t="n">
+        <v>295.9917215672568</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-88.36641911038545</v>
+      </c>
+      <c r="D9" t="n">
+        <v>308.0630981958453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>119</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-82.39046591259702</v>
+      </c>
+      <c r="D10" t="n">
+        <v>319.5999590472888</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>129</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-78.25884518710109</v>
+      </c>
+      <c r="D11" t="n">
+        <v>331.8051205372478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-44.67327122042853</v>
+      </c>
+      <c r="D12" t="n">
+        <v>342.4270824043487</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>148</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-43.57511306051371</v>
+      </c>
+      <c r="D13" t="n">
+        <v>358.5619984962117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>168</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-45.9299993071162</v>
+      </c>
+      <c r="D14" t="n">
+        <v>374.4981646999047</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>178</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-10.55052910438392</v>
+      </c>
+      <c r="D15" t="n">
+        <v>391.2151477716372</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>188</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.10037613946108</v>
+      </c>
+      <c r="D16" t="n">
+        <v>391.2386694095987</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>198</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.51674526567687</v>
+      </c>
+      <c r="D17" t="n">
+        <v>403.0252945390952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>208</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.436879178163244</v>
+      </c>
+      <c r="D18" t="n">
+        <v>428.1418666637862</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>218</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.0741825892231</v>
+      </c>
+      <c r="D19" t="n">
+        <v>434.4577427677601</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>228</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29.16798457483699</v>
+      </c>
+      <c r="D20" t="n">
+        <v>435.2370977702468</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>238</v>
+      </c>
+      <c r="C21" t="n">
+        <v>40.3598965073331</v>
+      </c>
+      <c r="D21" t="n">
+        <v>444.7247999183609</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>248</v>
+      </c>
+      <c r="C22" t="n">
+        <v>58.36235793536802</v>
+      </c>
+      <c r="D22" t="n">
+        <v>459.8290903116522</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>307</v>
+      </c>
+      <c r="C23" t="n">
+        <v>90.87784540427924</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.3168702415031</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>111.1018713305163</v>
+      </c>
+      <c r="D24" t="n">
+        <v>511.6930183611883</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>327</v>
+      </c>
+      <c r="C25" t="n">
+        <v>124.1680371878644</v>
+      </c>
+      <c r="D25" t="n">
+        <v>543.7510985447611</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>337</v>
+      </c>
+      <c r="C26" t="n">
+        <v>129.1493006766678</v>
+      </c>
+      <c r="D26" t="n">
+        <v>536.910939022645</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>347</v>
+      </c>
+      <c r="C27" t="n">
+        <v>148.2566680194989</v>
+      </c>
+      <c r="D27" t="n">
+        <v>536.3937688406257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>357</v>
+      </c>
+      <c r="C28" t="n">
+        <v>158.8647418074667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>549.0643895445734</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>367</v>
+      </c>
+      <c r="C29" t="n">
+        <v>160.8321644225105</v>
+      </c>
+      <c r="D29" t="n">
+        <v>572.3739253567779</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>377</v>
+      </c>
+      <c r="C30" t="n">
+        <v>169.7638107067497</v>
+      </c>
+      <c r="D30" t="n">
+        <v>575.5674606633975</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>386</v>
+      </c>
+      <c r="C31" t="n">
+        <v>172.9288405317371</v>
+      </c>
+      <c r="D31" t="n">
+        <v>593.7043788543224</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D2V4VH2C_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2V4VH2C_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>-196.4145677260732</v>
-      </c>
-      <c r="D2" t="n">
-        <v>220.8566418841556</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>-163.9269254159585</v>
-      </c>
-      <c r="D3" t="n">
-        <v>241.9659040061348</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>59</v>
       </c>
-      <c r="C4" t="n">
-        <v>-150.2025348828862</v>
-      </c>
-      <c r="D4" t="n">
-        <v>253.2027074527664</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>69</v>
       </c>
-      <c r="C5" t="n">
-        <v>-136.3968505570568</v>
-      </c>
-      <c r="D5" t="n">
-        <v>275.7461264762698</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>79</v>
       </c>
-      <c r="C6" t="n">
-        <v>-112.9611350644414</v>
-      </c>
-      <c r="D6" t="n">
-        <v>279.8849654522818</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>89</v>
       </c>
-      <c r="C7" t="n">
-        <v>-109.1933111885373</v>
-      </c>
-      <c r="D7" t="n">
-        <v>290.215545696084</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>99</v>
       </c>
-      <c r="C8" t="n">
-        <v>-101.9208660981232</v>
-      </c>
-      <c r="D8" t="n">
-        <v>295.9917215672568</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>109</v>
       </c>
-      <c r="C9" t="n">
-        <v>-88.36641911038545</v>
-      </c>
-      <c r="D9" t="n">
-        <v>308.0630981958453</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>119</v>
       </c>
-      <c r="C10" t="n">
-        <v>-82.39046591259702</v>
-      </c>
-      <c r="D10" t="n">
-        <v>319.5999590472888</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>129</v>
       </c>
-      <c r="C11" t="n">
-        <v>-78.25884518710109</v>
-      </c>
-      <c r="D11" t="n">
-        <v>331.8051205372478</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>139</v>
       </c>
-      <c r="C12" t="n">
-        <v>-44.67327122042853</v>
-      </c>
-      <c r="D12" t="n">
-        <v>342.4270824043487</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>148</v>
       </c>
-      <c r="C13" t="n">
-        <v>-43.57511306051371</v>
-      </c>
-      <c r="D13" t="n">
-        <v>358.5619984962117</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>168</v>
       </c>
-      <c r="C14" t="n">
-        <v>-45.9299993071162</v>
-      </c>
-      <c r="D14" t="n">
-        <v>374.4981646999047</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>178</v>
       </c>
-      <c r="C15" t="n">
-        <v>-10.55052910438392</v>
-      </c>
-      <c r="D15" t="n">
-        <v>391.2151477716372</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>188</v>
       </c>
-      <c r="C16" t="n">
-        <v>-8.10037613946108</v>
-      </c>
-      <c r="D16" t="n">
-        <v>391.2386694095987</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>198</v>
       </c>
-      <c r="C17" t="n">
-        <v>-14.51674526567687</v>
-      </c>
-      <c r="D17" t="n">
-        <v>403.0252945390952</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>208</v>
       </c>
-      <c r="C18" t="n">
-        <v>2.436879178163244</v>
-      </c>
-      <c r="D18" t="n">
-        <v>428.1418666637862</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>218</v>
       </c>
-      <c r="C19" t="n">
-        <v>17.0741825892231</v>
-      </c>
-      <c r="D19" t="n">
-        <v>434.4577427677601</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>228</v>
       </c>
-      <c r="C20" t="n">
-        <v>29.16798457483699</v>
-      </c>
-      <c r="D20" t="n">
-        <v>435.2370977702468</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>238</v>
       </c>
-      <c r="C21" t="n">
-        <v>40.3598965073331</v>
-      </c>
-      <c r="D21" t="n">
-        <v>444.7247999183609</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>248</v>
       </c>
-      <c r="C22" t="n">
-        <v>58.36235793536802</v>
-      </c>
-      <c r="D22" t="n">
-        <v>459.8290903116522</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>307</v>
       </c>
-      <c r="C23" t="n">
-        <v>90.87784540427924</v>
-      </c>
-      <c r="D23" t="n">
-        <v>506.3168702415031</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>317</v>
       </c>
-      <c r="C24" t="n">
-        <v>111.1018713305163</v>
-      </c>
-      <c r="D24" t="n">
-        <v>511.6930183611883</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>327</v>
       </c>
-      <c r="C25" t="n">
-        <v>124.1680371878644</v>
-      </c>
-      <c r="D25" t="n">
-        <v>543.7510985447611</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>337</v>
       </c>
-      <c r="C26" t="n">
-        <v>129.1493006766678</v>
-      </c>
-      <c r="D26" t="n">
-        <v>536.910939022645</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>347</v>
       </c>
-      <c r="C27" t="n">
-        <v>148.2566680194989</v>
-      </c>
-      <c r="D27" t="n">
-        <v>536.3937688406257</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>357</v>
       </c>
-      <c r="C28" t="n">
-        <v>158.8647418074667</v>
-      </c>
-      <c r="D28" t="n">
-        <v>549.0643895445734</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>367</v>
       </c>
-      <c r="C29" t="n">
-        <v>160.8321644225105</v>
-      </c>
-      <c r="D29" t="n">
-        <v>572.3739253567779</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>377</v>
       </c>
-      <c r="C30" t="n">
-        <v>169.7638107067497</v>
-      </c>
-      <c r="D30" t="n">
-        <v>575.5674606633975</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>386</v>
-      </c>
-      <c r="C31" t="n">
-        <v>172.9288405317371</v>
-      </c>
-      <c r="D31" t="n">
-        <v>593.7043788543224</v>
       </c>
     </row>
   </sheetData>
